--- a/R/data/dictionaries/core/2_1/2_1_non_rep.xlsx
+++ b/R/data/dictionaries/core/2_1/2_1_non_rep.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/2_0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C3C00-C393-FE4D-BAFE-9D94A62E20D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="850">
   <si>
     <t>name</t>
   </si>
@@ -371,9 +365,6 @@
     <t>eusilc_income_quintiles</t>
   </si>
   <si>
-    <t>miggen</t>
-  </si>
-  <si>
     <t>region_mo</t>
   </si>
   <si>
@@ -2553,12 +2544,33 @@
   </si>
   <si>
     <t>Maternal bulimia nervosa active during the index pregnancy</t>
+  </si>
+  <si>
+    <t>miggen_child</t>
+  </si>
+  <si>
+    <t>abroad_mo</t>
+  </si>
+  <si>
+    <t>Mother's born abroad</t>
+  </si>
+  <si>
+    <t>abroad_fa</t>
+  </si>
+  <si>
+    <t>Father's born abroad</t>
+  </si>
+  <si>
+    <t>abroad_child</t>
+  </si>
+  <si>
+    <t>Child's born abroad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -2663,8 +2675,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2680,7 +2692,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2722,7 +2734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2754,27 +2766,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2806,24 +2800,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2999,20 +2975,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D325"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318:XFD325"/>
+    <sheetView topLeftCell="A298" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="197.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -3020,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -3034,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -3048,11 +3024,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -3060,11 +3036,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
@@ -3072,13 +3048,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
@@ -3086,13 +3062,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
@@ -3100,13 +3076,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -3114,13 +3090,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -3128,13 +3104,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -3142,13 +3118,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
@@ -3156,13 +3132,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
@@ -3170,13 +3146,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -3184,13 +3160,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -3198,13 +3174,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -3212,13 +3188,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
@@ -3226,13 +3202,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -3240,13 +3216,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -3254,13 +3230,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -3268,13 +3244,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -3282,13 +3258,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -3296,13 +3272,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
@@ -3310,13 +3286,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
@@ -3324,13 +3300,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
@@ -3338,13 +3314,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
@@ -3352,13 +3328,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -3366,13 +3342,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -3380,13 +3356,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -3394,13 +3370,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
@@ -3408,13 +3384,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
@@ -3422,13 +3398,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
@@ -3436,13 +3412,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
@@ -3450,13 +3426,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -3464,13 +3440,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -3478,13 +3454,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -3492,13 +3468,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -3506,13 +3482,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -3520,13 +3496,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -3534,13 +3510,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -3548,13 +3524,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -3562,13 +3538,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -3576,13 +3552,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
@@ -3590,13 +3566,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
@@ -3604,13 +3580,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
@@ -3618,13 +3594,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
@@ -3632,13 +3608,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -3646,13 +3622,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
@@ -3660,13 +3636,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -3674,13 +3650,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -3688,13 +3664,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -3702,13 +3678,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
@@ -3716,13 +3692,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
@@ -3730,13 +3706,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -3744,13 +3720,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
@@ -3758,13 +3734,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
@@ -3772,13 +3748,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -3786,13 +3762,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
@@ -3800,13 +3776,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
@@ -3814,13 +3790,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -3828,13 +3804,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -3842,13 +3818,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
@@ -3856,13 +3832,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -3870,13 +3846,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
@@ -3884,13 +3860,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
@@ -3898,13 +3874,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
@@ -3912,13 +3888,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -3926,13 +3902,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
@@ -3940,13 +3916,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
@@ -3954,13 +3930,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
@@ -3968,13 +3944,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
@@ -3982,13 +3958,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
@@ -3996,13 +3972,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
@@ -4010,13 +3986,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
@@ -4024,13 +4000,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
@@ -4038,13 +4014,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
@@ -4052,13 +4028,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
@@ -4066,13 +4042,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
@@ -4080,13 +4056,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
@@ -4094,13 +4070,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
@@ -4108,13 +4084,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
@@ -4122,13 +4098,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
@@ -4136,13 +4112,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
@@ -4150,13 +4126,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
@@ -4164,13 +4140,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
@@ -4178,13 +4154,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
@@ -4192,13 +4168,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
@@ -4206,13 +4182,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
@@ -4220,13 +4196,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
@@ -4234,13 +4210,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
@@ -4248,13 +4224,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
@@ -4262,13 +4238,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
@@ -4276,13 +4252,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
@@ -4290,13 +4266,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
@@ -4304,13 +4280,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
@@ -4318,13 +4294,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
@@ -4332,13 +4308,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
@@ -4346,13 +4322,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
@@ -4360,13 +4336,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
@@ -4374,13 +4350,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
@@ -4388,13 +4364,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
@@ -4402,13 +4378,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
@@ -4416,13 +4392,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
@@ -4430,13 +4406,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
@@ -4444,13 +4420,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1">
@@ -4458,13 +4434,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
@@ -4472,13 +4448,13 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
@@ -4486,13 +4462,13 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
@@ -4500,13 +4476,13 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
@@ -4514,13 +4490,13 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1">
@@ -4528,13 +4504,13 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
@@ -4542,13 +4518,13 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
@@ -4556,13 +4532,13 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
@@ -4570,13 +4546,13 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
@@ -4584,13 +4560,13 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
@@ -4598,13 +4574,13 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
@@ -4612,2771 +4588,2771 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>843</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1">
@@ -7384,181 +7360,223 @@
         <v>104</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1">
       <c r="A314" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1">
       <c r="A315" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1">
       <c r="A316" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A318" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A319" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A320" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A321" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A322" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A323" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A324" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A325" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15" customHeight="1">
+      <c r="A326" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15" customHeight="1">
+      <c r="A327" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="15" customHeight="1">
+      <c r="A328" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -7570,35 +7588,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D321"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A306" sqref="A306:D321"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>653</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
@@ -7612,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
@@ -7626,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -7640,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
@@ -7654,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
@@ -7668,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
@@ -7682,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -7696,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -7710,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -7724,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
@@ -7738,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
@@ -7752,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
@@ -7766,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -7780,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
@@ -7794,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
@@ -7808,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
@@ -7822,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -7836,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -7850,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -7864,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -7878,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
@@ -7892,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
@@ -7906,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
@@ -7920,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
@@ -7934,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
@@ -7948,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
@@ -7962,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
@@ -7976,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
@@ -7990,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
@@ -8004,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
@@ -8018,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
@@ -8032,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
@@ -8046,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
@@ -8060,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
@@ -8074,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
@@ -8088,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
@@ -8102,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
@@ -8116,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
@@ -8130,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
@@ -8144,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
@@ -8158,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
@@ -8172,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
@@ -8186,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
@@ -8200,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
@@ -8214,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
@@ -8228,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
@@ -8242,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
@@ -8256,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
@@ -8270,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
@@ -8284,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
@@ -8298,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
@@ -8312,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
@@ -8326,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
@@ -8340,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
@@ -8354,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
@@ -8368,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
@@ -8382,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
@@ -8396,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
@@ -8410,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
@@ -8424,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
@@ -8438,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
@@ -8452,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
@@ -8466,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1">
@@ -8480,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
@@ -8494,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -8508,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
@@ -8522,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
@@ -8536,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
@@ -8550,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1">
@@ -8564,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
@@ -8578,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
@@ -8592,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
@@ -8606,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
@@ -8620,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
@@ -8634,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1">
@@ -8648,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1">
@@ -8662,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1">
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1">
@@ -8690,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1">
@@ -8704,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1">
@@ -8718,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1">
@@ -8732,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1">
@@ -8746,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1">
@@ -8760,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1">
@@ -8774,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1">
@@ -8788,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1">
@@ -8802,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1">
@@ -8816,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1">
@@ -8830,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1">
@@ -8844,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1">
@@ -8858,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1">
@@ -8872,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1">
@@ -8886,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1">
@@ -8900,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1">
@@ -8914,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1">
@@ -8928,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1">
@@ -8942,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1">
@@ -8956,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1">
@@ -8970,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1">
@@ -8984,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1">
@@ -8998,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1">
@@ -9012,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1">
@@ -9026,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1">
@@ -9040,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
@@ -9054,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
@@ -9068,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
@@ -9082,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
@@ -9096,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1">
@@ -9110,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
@@ -9124,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
@@ -9138,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
@@ -9152,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
@@ -9166,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
@@ -9180,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
@@ -9194,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
@@ -9208,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
@@ -9222,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
@@ -9236,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
@@ -9250,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
@@ -9264,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
@@ -9278,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
@@ -9292,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
@@ -9306,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
@@ -9320,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
@@ -9334,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
@@ -9348,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
@@ -9362,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
@@ -9376,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
@@ -9390,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
@@ -9404,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
@@ -9418,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
@@ -9432,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
@@ -9446,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
@@ -9460,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
@@ -9474,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
@@ -9488,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
@@ -9502,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
@@ -9516,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
@@ -9530,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
@@ -9544,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
@@ -9558,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
@@ -9572,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
@@ -9586,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
@@ -9600,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
@@ -9614,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
@@ -9628,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
@@ -9642,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
@@ -9656,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
@@ -9670,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
@@ -9684,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
@@ -9698,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
@@ -9712,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
@@ -9726,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
@@ -9740,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
@@ -9754,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
@@ -9768,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
@@ -9782,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
@@ -9796,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
@@ -9810,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
@@ -9824,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
@@ -9838,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
@@ -9852,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
@@ -9866,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
@@ -9880,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
@@ -9894,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
@@ -9908,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
@@ -9922,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
@@ -9936,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
@@ -9950,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
@@ -9964,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
@@ -9978,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
@@ -9992,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
@@ -10006,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
@@ -10020,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
@@ -10034,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
@@ -10048,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
@@ -10062,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
@@ -10076,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
@@ -10090,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
@@ -10104,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
@@ -10118,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
@@ -10132,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
@@ -10146,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
@@ -10160,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
@@ -10174,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
@@ -10188,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
@@ -10202,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
@@ -10216,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
@@ -10230,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
@@ -10244,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
@@ -10258,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
@@ -10272,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
@@ -10286,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
@@ -10300,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
@@ -10314,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
@@ -10328,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
@@ -10342,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
@@ -10356,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
@@ -10370,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
@@ -10384,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
@@ -10398,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
@@ -10412,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
@@ -10426,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
@@ -10440,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
@@ -10454,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
@@ -10468,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
@@ -10482,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
@@ -10496,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
@@ -10510,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
@@ -10524,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
@@ -10538,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
@@ -10552,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
@@ -10566,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
@@ -10580,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
@@ -10594,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
@@ -10608,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
@@ -10622,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
@@ -10636,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
@@ -10650,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
@@ -10664,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
@@ -10678,12 +10696,12 @@
         <v>0</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>116</v>
+        <v>843</v>
       </c>
       <c r="B222" s="3">
         <v>1</v>
@@ -10692,12 +10710,12 @@
         <v>0</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>116</v>
+        <v>843</v>
       </c>
       <c r="B223" s="3">
         <v>2</v>
@@ -10706,12 +10724,12 @@
         <v>0</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="3" t="s">
-        <v>116</v>
+        <v>843</v>
       </c>
       <c r="B224" s="3">
         <v>3</v>
@@ -10720,12 +10738,12 @@
         <v>0</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="A225" s="3" t="s">
-        <v>116</v>
+        <v>843</v>
       </c>
       <c r="B225" s="3">
         <v>4</v>
@@ -10734,12 +10752,12 @@
         <v>0</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>116</v>
+        <v>843</v>
       </c>
       <c r="B226" s="3">
         <v>5</v>
@@ -10748,12 +10766,12 @@
         <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B227" s="3">
         <v>0</v>
@@ -10762,12 +10780,12 @@
         <v>0</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B228" s="3">
         <v>1</v>
@@ -10776,12 +10794,12 @@
         <v>0</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="A229" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B229" s="3">
         <v>2</v>
@@ -10790,12 +10808,12 @@
         <v>0</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B230" s="3">
         <v>3</v>
@@ -10804,12 +10822,12 @@
         <v>0</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B231" s="3">
         <v>4</v>
@@ -10818,12 +10836,12 @@
         <v>0</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B232" s="3">
         <v>5</v>
@@ -10832,12 +10850,12 @@
         <v>0</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B233" s="3">
         <v>6</v>
@@ -10846,12 +10864,12 @@
         <v>0</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B234" s="3">
         <v>7</v>
@@ -10860,12 +10878,12 @@
         <v>0</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B235" s="3">
         <v>8</v>
@@ -10874,12 +10892,12 @@
         <v>0</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B236" s="3">
         <v>9</v>
@@ -10888,12 +10906,12 @@
         <v>0</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
       <c r="A237" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B237" s="3">
         <v>0</v>
@@ -10902,12 +10920,12 @@
         <v>0</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
       <c r="A238" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B238" s="3">
         <v>1</v>
@@ -10916,12 +10934,12 @@
         <v>0</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B239" s="3">
         <v>2</v>
@@ -10930,12 +10948,12 @@
         <v>0</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B240" s="3">
         <v>3</v>
@@ -10944,12 +10962,12 @@
         <v>0</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B241" s="3">
         <v>4</v>
@@ -10958,12 +10976,12 @@
         <v>0</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B242" s="3">
         <v>5</v>
@@ -10972,12 +10990,12 @@
         <v>0</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B243" s="3">
         <v>6</v>
@@ -10986,12 +11004,12 @@
         <v>0</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B244" s="3">
         <v>7</v>
@@ -11000,12 +11018,12 @@
         <v>0</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B245" s="3">
         <v>8</v>
@@ -11014,12 +11032,12 @@
         <v>0</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B246" s="3">
         <v>9</v>
@@ -11028,12 +11046,12 @@
         <v>0</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B247" s="3">
         <v>1001</v>
@@ -11042,12 +11060,12 @@
         <v>0</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B248" s="3">
         <v>1102</v>
@@ -11056,12 +11074,12 @@
         <v>0</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B249" s="3">
         <v>1103</v>
@@ -11070,12 +11088,12 @@
         <v>0</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B250" s="3">
         <v>1104</v>
@@ -11084,12 +11102,12 @@
         <v>0</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B251" s="3">
         <v>1201</v>
@@ -11098,12 +11116,12 @@
         <v>0</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B252" s="3">
         <v>1202</v>
@@ -11112,12 +11130,12 @@
         <v>0</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B253" s="3">
         <v>1203</v>
@@ -11126,12 +11144,12 @@
         <v>0</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B254" s="3">
         <v>1301</v>
@@ -11140,12 +11158,12 @@
         <v>0</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B255" s="3">
         <v>1401</v>
@@ -11154,12 +11172,12 @@
         <v>0</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B256" s="3">
         <v>1501</v>
@@ -11168,12 +11186,12 @@
         <v>0</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B257" s="3">
         <v>1601</v>
@@ -11182,12 +11200,12 @@
         <v>0</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B258" s="3">
         <v>1701</v>
@@ -11196,12 +11214,12 @@
         <v>0</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B259" s="3">
         <v>1801</v>
@@ -11210,12 +11228,12 @@
         <v>0</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B260" s="3">
         <v>1802</v>
@@ -11224,12 +11242,12 @@
         <v>0</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B261" s="3">
         <v>1901</v>
@@ -11238,12 +11256,12 @@
         <v>0</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B262" s="3">
         <v>2001</v>
@@ -11252,12 +11270,12 @@
         <v>0</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B263" s="3">
         <v>1</v>
@@ -11266,12 +11284,12 @@
         <v>0</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1">
       <c r="A264" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B264" s="3">
         <v>0</v>
@@ -11280,12 +11298,12 @@
         <v>0</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B265" s="3">
         <v>1</v>
@@ -11294,12 +11312,12 @@
         <v>0</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B266" s="3">
         <v>0</v>
@@ -11308,12 +11326,12 @@
         <v>0</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B267" s="3">
         <v>1</v>
@@ -11322,12 +11340,12 @@
         <v>0</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B268" s="3">
         <v>2</v>
@@ -11336,12 +11354,12 @@
         <v>0</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B269" s="3">
         <v>3</v>
@@ -11350,12 +11368,12 @@
         <v>0</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B270" s="3">
         <v>4</v>
@@ -11364,12 +11382,12 @@
         <v>0</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B271" s="3">
         <v>5</v>
@@ -11378,12 +11396,12 @@
         <v>0</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B272" s="3">
         <v>6</v>
@@ -11392,12 +11410,12 @@
         <v>0</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B273" s="3">
         <v>1</v>
@@ -11406,12 +11424,12 @@
         <v>0</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="A274" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B274" s="3">
         <v>2</v>
@@ -11420,12 +11438,12 @@
         <v>0</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1">
       <c r="A275" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B275" s="3">
         <v>3</v>
@@ -11434,12 +11452,12 @@
         <v>0</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1">
       <c r="A276" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B276" s="3">
         <v>4</v>
@@ -11448,12 +11466,12 @@
         <v>0</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B277" s="3">
         <v>5</v>
@@ -11462,12 +11480,12 @@
         <v>0</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1">
       <c r="A278" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B278" s="3">
         <v>6</v>
@@ -11476,12 +11494,12 @@
         <v>0</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B279" s="3">
         <v>1</v>
@@ -11490,12 +11508,12 @@
         <v>0</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
       <c r="A280" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B280" s="3">
         <v>2</v>
@@ -11504,12 +11522,12 @@
         <v>0</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1">
       <c r="A281" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B281" s="3">
         <v>3</v>
@@ -11518,12 +11536,12 @@
         <v>0</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1">
       <c r="A282" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B282" s="3">
         <v>1</v>
@@ -11532,12 +11550,12 @@
         <v>0</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B283" s="3">
         <v>2</v>
@@ -11546,12 +11564,12 @@
         <v>0</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="A284" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B284" s="3">
         <v>3</v>
@@ -11560,12 +11578,12 @@
         <v>0</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
       <c r="A285" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B285" s="3">
         <v>4</v>
@@ -11574,12 +11592,12 @@
         <v>0</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B286" s="3">
         <v>5</v>
@@ -11588,12 +11606,12 @@
         <v>0</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1">
       <c r="A287" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B287" s="3">
         <v>1</v>
@@ -11602,12 +11620,12 @@
         <v>0</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1">
       <c r="A288" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B288" s="3">
         <v>2</v>
@@ -11616,12 +11634,12 @@
         <v>0</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="A289" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B289" s="3">
         <v>3</v>
@@ -11630,12 +11648,12 @@
         <v>0</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="A290" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B290" s="3">
         <v>1</v>
@@ -11644,12 +11662,12 @@
         <v>0</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
       <c r="A291" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B291" s="3">
         <v>2</v>
@@ -11658,12 +11676,12 @@
         <v>0</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
       <c r="A292" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B292" s="3">
         <v>3</v>
@@ -11672,12 +11690,12 @@
         <v>0</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1">
       <c r="A293" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B293" s="3">
         <v>1</v>
@@ -11686,12 +11704,12 @@
         <v>0</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="A294" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B294" s="3">
         <v>2</v>
@@ -11700,12 +11718,12 @@
         <v>0</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1">
       <c r="A295" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B295" s="3">
         <v>3</v>
@@ -11714,12 +11732,12 @@
         <v>0</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="A296" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B296" s="3">
         <v>0</v>
@@ -11728,12 +11746,12 @@
         <v>0</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1">
       <c r="A297" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B297" s="3">
         <v>1</v>
@@ -11742,12 +11760,12 @@
         <v>0</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
       <c r="A298" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B298" s="3">
         <v>0</v>
@@ -11756,12 +11774,12 @@
         <v>0</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1">
       <c r="A299" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B299" s="3">
         <v>1</v>
@@ -11770,12 +11788,12 @@
         <v>0</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
       <c r="A300" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B300" s="3">
         <v>0</v>
@@ -11784,12 +11802,12 @@
         <v>0</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
       <c r="A301" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B301" s="3">
         <v>1</v>
@@ -11798,12 +11816,12 @@
         <v>0</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1">
       <c r="A302" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B302" s="3">
         <v>0</v>
@@ -11812,12 +11830,12 @@
         <v>0</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1">
       <c r="A303" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B303" s="5">
         <v>1</v>
@@ -11826,12 +11844,12 @@
         <v>0</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1">
       <c r="A304" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B304" s="5">
         <v>0</v>
@@ -11840,12 +11858,12 @@
         <v>0</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1">
       <c r="A305" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B305" s="5">
         <v>1</v>
@@ -11854,12 +11872,12 @@
         <v>0</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1">
       <c r="A306" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B306" s="5">
         <v>0</v>
@@ -11868,12 +11886,12 @@
         <v>0</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1">
       <c r="A307" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B307" s="5">
         <v>1</v>
@@ -11882,12 +11900,12 @@
         <v>0</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1">
       <c r="A308" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B308" s="5">
         <v>0</v>
@@ -11896,12 +11914,12 @@
         <v>0</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1">
       <c r="A309" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B309" s="5">
         <v>1</v>
@@ -11910,12 +11928,12 @@
         <v>0</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B310" s="5">
         <v>0</v>
@@ -11924,12 +11942,12 @@
         <v>0</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B311" s="5">
         <v>1</v>
@@ -11938,12 +11956,12 @@
         <v>0</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B312" s="5">
         <v>0</v>
@@ -11952,12 +11970,12 @@
         <v>0</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B313" s="5">
         <v>1</v>
@@ -11966,12 +11984,12 @@
         <v>0</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B314" s="5">
         <v>0</v>
@@ -11980,12 +11998,12 @@
         <v>0</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B315" s="5">
         <v>1</v>
@@ -11994,12 +12012,12 @@
         <v>0</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B316" s="5">
         <v>0</v>
@@ -12008,12 +12026,12 @@
         <v>0</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B317" s="5">
         <v>1</v>
@@ -12022,12 +12040,12 @@
         <v>0</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1">
       <c r="A318" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B318" s="5">
         <v>0</v>
@@ -12036,12 +12054,12 @@
         <v>0</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1">
       <c r="A319" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B319" s="5">
         <v>1</v>
@@ -12050,12 +12068,12 @@
         <v>0</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1">
       <c r="A320" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B320" s="5">
         <v>0</v>
@@ -12064,12 +12082,12 @@
         <v>0</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1">
       <c r="A321" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B321" s="5">
         <v>1</v>
@@ -12078,7 +12096,91 @@
         <v>0</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15" customHeight="1">
+      <c r="A322" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B322" s="5">
+        <v>0</v>
+      </c>
+      <c r="C322" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15" customHeight="1">
+      <c r="A323" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B323" s="5">
+        <v>1</v>
+      </c>
+      <c r="C323" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" customHeight="1">
+      <c r="A324" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B324" s="5">
+        <v>0</v>
+      </c>
+      <c r="C324" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15" customHeight="1">
+      <c r="A325" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B325" s="5">
+        <v>1</v>
+      </c>
+      <c r="C325" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15" customHeight="1">
+      <c r="A326" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B326" s="5">
+        <v>0</v>
+      </c>
+      <c r="C326" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15" customHeight="1">
+      <c r="A327" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B327" s="5">
+        <v>1</v>
+      </c>
+      <c r="C327" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
